--- a/other/menu.xlsx
+++ b/other/menu.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>monitor auto</t>
   </si>

--- a/other/menu.xlsx
+++ b/other/menu.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>monitor auto</t>
   </si>
@@ -33,9 +33,6 @@
     <t>rEg</t>
   </si>
   <si>
-    <t>PAr</t>
-  </si>
-  <si>
     <t>dSL</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>td</t>
   </si>
   <si>
-    <t>dIr</t>
-  </si>
-  <si>
     <t>00.00</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>USE</t>
   </si>
   <si>
-    <t>2POS/3POS/Pid</t>
-  </si>
-  <si>
     <t>UPOL</t>
   </si>
   <si>
@@ -130,6 +121,9 @@
   </si>
   <si>
     <t>PrOP</t>
+  </si>
+  <si>
+    <t>PArA</t>
   </si>
 </sst>
 </file>
@@ -303,13 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -319,8 +307,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -604,7 +598,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,255 +623,255 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>7</v>
+      <c r="G2" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="15"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D4" s="6"/>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>7</v>
+      <c r="G4" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" s="6"/>
-      <c r="E5" s="16"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" s="6"/>
-      <c r="E6" s="16"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" s="6"/>
-      <c r="E7" s="15"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" s="6"/>
-      <c r="E8" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="E8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>33</v>
+      <c r="G8" s="21" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" s="6"/>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
       <c r="F11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" s="6"/>
-      <c r="E12" s="13" t="s">
-        <v>31</v>
+      <c r="E12" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13" s="6"/>
       <c r="E13" s="3"/>
       <c r="F13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D14" s="6"/>
       <c r="E14" s="3"/>
       <c r="F14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D15" s="6"/>
       <c r="E15" s="3"/>
       <c r="F15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" s="6"/>
       <c r="E16" s="2"/>
       <c r="F16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D17" s="6"/>
-      <c r="E17" s="19" t="s">
-        <v>14</v>
+      <c r="E17" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D18" s="6"/>
       <c r="E18" s="3"/>
       <c r="F18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D19" s="6"/>
       <c r="E19" s="3"/>
       <c r="F19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D20" s="6"/>
       <c r="E20" s="3"/>
       <c r="F20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D21" s="6"/>
       <c r="E21" s="3"/>
       <c r="F21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D22" s="6"/>
       <c r="E22" s="3"/>
       <c r="F22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>7</v>
+        <v>32</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
       <c r="F23" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="12">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="23"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
